--- a/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3400BF24-A501-451D-9353-46CD9DFCB507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{357CB4D0-EF96-4A1F-B8B9-DF0EDDE6C574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D3BFD33-D237-43EF-980D-E58F59F8858C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02717355-C339-4E17-AA74-87EE564CE838}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="473">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>66,86%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
   </si>
   <si>
     <t>64,26%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,1357 +104,1354 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>5,52%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>18,43%</t>
   </si>
   <si>
     <t>15,0%</t>
   </si>
   <si>
-    <t>13,66%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1869,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FFE7BD-0923-4C72-B2C9-0CB888D7A1C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CB03C7-BC30-4140-9B3B-4CFBCB8692F6}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2406,10 +2403,10 @@
         <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -2418,13 +2415,13 @@
         <v>20997</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -2433,13 +2430,13 @@
         <v>47447</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2451,13 @@
         <v>6776</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2469,13 +2466,13 @@
         <v>11289</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2484,13 +2481,13 @@
         <v>18065</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,7 +2610,7 @@
         <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2622,13 +2619,13 @@
         <v>23199</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2637,13 +2634,13 @@
         <v>38467</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2696,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2711,13 +2708,13 @@
         <v>42184</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -2726,13 +2723,13 @@
         <v>38616</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -2741,13 +2738,13 @@
         <v>80799</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2759,13 @@
         <v>25623</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2777,13 +2774,13 @@
         <v>13512</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -2792,13 +2789,13 @@
         <v>39135</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2810,13 @@
         <v>19054</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2828,13 +2825,13 @@
         <v>15611</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2843,13 +2840,13 @@
         <v>34664</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2861,13 @@
         <v>15320</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2879,13 +2876,13 @@
         <v>12756</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -2894,13 +2891,13 @@
         <v>28075</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2912,13 @@
         <v>29134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -2930,13 +2927,13 @@
         <v>25366</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -2945,13 +2942,13 @@
         <v>54500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2963,13 @@
         <v>18877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -2981,13 +2978,13 @@
         <v>21241</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
@@ -2996,13 +2993,13 @@
         <v>40118</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3055,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3070,13 +3067,13 @@
         <v>66164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -3085,13 +3082,13 @@
         <v>78520</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3100,13 +3097,13 @@
         <v>144683</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3118,13 @@
         <v>15167</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -3136,13 +3133,13 @@
         <v>19139</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -3151,13 +3148,13 @@
         <v>34306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3169,13 @@
         <v>13311</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
@@ -3187,13 +3184,13 @@
         <v>14310</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -3202,13 +3199,13 @@
         <v>27620</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3220,13 @@
         <v>28459</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -3238,13 +3235,13 @@
         <v>21453</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -3253,13 +3250,13 @@
         <v>49912</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3271,13 @@
         <v>28975</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -3289,13 +3286,13 @@
         <v>30765</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>52</v>
@@ -3304,13 +3301,13 @@
         <v>59740</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3322,13 @@
         <v>20325</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -3340,13 +3337,13 @@
         <v>30503</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -3355,13 +3352,13 @@
         <v>50827</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,7 +3414,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3429,13 +3426,13 @@
         <v>10635</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -3444,13 +3441,13 @@
         <v>8170</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -3459,13 +3456,13 @@
         <v>18805</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3477,13 @@
         <v>71087</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H33" s="7">
         <v>160</v>
@@ -3495,13 +3492,13 @@
         <v>77873</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M33" s="7">
         <v>257</v>
@@ -3510,13 +3507,13 @@
         <v>148960</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3528,13 @@
         <v>29004</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -3546,13 +3543,13 @@
         <v>22253</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M34" s="7">
         <v>86</v>
@@ -3561,13 +3558,13 @@
         <v>51257</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3579,13 @@
         <v>10511</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -3597,13 +3594,13 @@
         <v>7799</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>28</v>
@@ -3612,13 +3609,13 @@
         <v>18310</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3630,13 @@
         <v>3218</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3648,13 +3645,13 @@
         <v>1247</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -3663,13 +3660,13 @@
         <v>4465</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3681,13 @@
         <v>573</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3699,13 +3696,13 @@
         <v>939</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -3714,13 +3711,13 @@
         <v>1512</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3773,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3788,13 +3785,13 @@
         <v>45908</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H39" s="7">
         <v>44</v>
@@ -3803,13 +3800,13 @@
         <v>34558</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M39" s="7">
         <v>91</v>
@@ -3818,13 +3815,13 @@
         <v>80466</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3836,13 @@
         <v>17126</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
@@ -3854,13 +3851,13 @@
         <v>14736</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M40" s="7">
         <v>41</v>
@@ -3869,13 +3866,13 @@
         <v>31861</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3887,13 @@
         <v>12369</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H41" s="7">
         <v>11</v>
@@ -3905,13 +3902,13 @@
         <v>7897</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="L41" s="7" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="M41" s="7">
         <v>25</v>
@@ -3920,13 +3917,13 @@
         <v>20267</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3938,13 @@
         <v>27012</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H42" s="7">
         <v>17</v>
@@ -3956,13 +3953,13 @@
         <v>11941</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="M42" s="7">
         <v>49</v>
@@ -3971,13 +3968,13 @@
         <v>38953</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3989,13 @@
         <v>24425</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H43" s="7">
         <v>17</v>
@@ -4007,13 +4004,13 @@
         <v>11998</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M43" s="7">
         <v>45</v>
@@ -4022,13 +4019,13 @@
         <v>36423</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4040,13 @@
         <v>11828</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H44" s="7">
         <v>19</v>
@@ -4058,7 +4055,7 @@
         <v>11815</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>323</v>
@@ -4073,13 +4070,13 @@
         <v>23644</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4132,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4147,13 +4144,13 @@
         <v>102503</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H46" s="7">
         <v>118</v>
@@ -4162,13 +4159,13 @@
         <v>90544</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M46" s="7">
         <v>221</v>
@@ -4177,13 +4174,13 @@
         <v>193047</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,10 +4195,10 @@
         <v>97318</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>338</v>
+        <v>132</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>339</v>
@@ -4249,13 +4246,13 @@
         <v>27015</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H48" s="7">
         <v>36</v>
@@ -4264,13 +4261,13 @@
         <v>24285</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M48" s="7">
         <v>58</v>
@@ -4279,13 +4276,13 @@
         <v>51300</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>352</v>
+        <v>151</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>353</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4297,13 @@
         <v>54375</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H49" s="7">
         <v>68</v>
@@ -4315,13 +4312,13 @@
         <v>54273</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="M49" s="7">
         <v>117</v>
@@ -4330,13 +4327,13 @@
         <v>108648</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4348,13 @@
         <v>38086</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H50" s="7">
         <v>93</v>
@@ -4366,13 +4363,13 @@
         <v>67042</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M50" s="7">
         <v>129</v>
@@ -4381,13 +4378,13 @@
         <v>105127</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4399,13 @@
         <v>16553</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H51" s="7">
         <v>45</v>
@@ -4417,13 +4414,13 @@
         <v>30667</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M51" s="7">
         <v>63</v>
@@ -4432,13 +4429,13 @@
         <v>47220</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,7 +4491,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4506,13 +4503,13 @@
         <v>132818</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H53" s="7">
         <v>40</v>
@@ -4521,13 +4518,13 @@
         <v>35367</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>198</v>
+        <v>383</v>
       </c>
       <c r="M53" s="7">
         <v>107</v>
@@ -4536,13 +4533,13 @@
         <v>168185</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,10 +4554,10 @@
         <v>71706</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>322</v>
+        <v>387</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>209</v>
+        <v>388</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>389</v>
@@ -4590,10 +4587,10 @@
         <v>393</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>233</v>
+        <v>394</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4605,13 @@
         <v>86303</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H55" s="7">
         <v>71</v>
@@ -4623,13 +4620,13 @@
         <v>63520</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M55" s="7">
         <v>150</v>
@@ -4638,13 +4635,13 @@
         <v>149823</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4656,13 @@
         <v>119641</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H56" s="7">
         <v>91</v>
@@ -4674,13 +4671,13 @@
         <v>74278</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M56" s="7">
         <v>193</v>
@@ -4689,13 +4686,13 @@
         <v>193919</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>96</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4707,13 @@
         <v>70979</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H57" s="7">
         <v>80</v>
@@ -4725,13 +4722,13 @@
         <v>68013</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>170</v>
+        <v>417</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M57" s="7">
         <v>137</v>
@@ -4740,13 +4737,13 @@
         <v>138992</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>416</v>
+        <v>135</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>417</v>
+        <v>154</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4758,13 @@
         <v>24645</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H58" s="7">
         <v>27</v>
@@ -4776,13 +4773,13 @@
         <v>30844</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>422</v>
+        <v>52</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M58" s="7">
         <v>48</v>
@@ -4791,13 +4788,13 @@
         <v>55489</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4862,13 @@
         <v>607343</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H60" s="7">
         <v>543</v>
@@ -4880,13 +4877,13 @@
         <v>420735</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M60" s="7">
         <v>1071</v>
@@ -4895,13 +4892,13 @@
         <v>1028078</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4913,13 @@
         <v>341176</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H61" s="7">
         <v>423</v>
@@ -4931,13 +4928,13 @@
         <v>274469</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M61" s="7">
         <v>759</v>
@@ -4946,13 +4943,13 @@
         <v>615644</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>23</v>
+        <v>389</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4964,13 @@
         <v>208300</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>443</v>
+        <v>47</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H62" s="7">
         <v>243</v>
@@ -4982,13 +4979,13 @@
         <v>171741</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K62" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="L62" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M62" s="7">
         <v>454</v>
@@ -4997,13 +4994,13 @@
         <v>380041</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>353</v>
+        <v>448</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>450</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5015,13 @@
         <v>321672</v>
       </c>
       <c r="E63" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H63" s="7">
         <v>319</v>
@@ -5033,13 +5030,13 @@
         <v>237070</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>455</v>
+        <v>35</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M63" s="7">
         <v>608</v>
@@ -5048,13 +5045,13 @@
         <v>558742</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>458</v>
+        <v>152</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5066,13 @@
         <v>251955</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H64" s="7">
         <v>314</v>
@@ -5084,13 +5081,13 @@
         <v>249187</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="M64" s="7">
         <v>526</v>
@@ -5099,13 +5096,13 @@
         <v>501143</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>359</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5117,13 @@
         <v>108068</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H65" s="7">
         <v>193</v>
@@ -5135,13 +5132,13 @@
         <v>149685</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M65" s="7">
         <v>293</v>
@@ -5150,13 +5147,13 @@
         <v>257753</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="Q65" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5209,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{357CB4D0-EF96-4A1F-B8B9-DF0EDDE6C574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C1B9574-60D9-4B79-B267-C6CA9D896D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02717355-C339-4E17-AA74-87EE564CE838}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{903265D0-29CB-4002-A3EA-CAB5BAFD1AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1866,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CB03C7-BC30-4140-9B3B-4CFBCB8692F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475E212-A3A0-41F2-A3D6-452EBC748718}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C1B9574-60D9-4B79-B267-C6CA9D896D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F725A5-1D89-41D4-AF7C-08E843A2B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{903265D0-29CB-4002-A3EA-CAB5BAFD1AB9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B232D46F-F585-4C72-BD9D-671836C0DB2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="474">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>66,86%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>64,26%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,1354 +104,1357 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>9,96%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1866,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475E212-A3A0-41F2-A3D6-452EBC748718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F779EA-58E8-405C-B719-CFAD610E0C6B}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2403,10 +2406,10 @@
         <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -2415,13 +2418,13 @@
         <v>20997</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -2430,13 +2433,13 @@
         <v>47447</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2454,13 @@
         <v>6776</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2466,13 +2469,13 @@
         <v>11289</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2481,13 +2484,13 @@
         <v>18065</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2613,7 @@
         <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2619,13 +2622,13 @@
         <v>23199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2634,13 +2637,13 @@
         <v>38467</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,7 +2699,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2708,13 +2711,13 @@
         <v>42184</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -2723,13 +2726,13 @@
         <v>38616</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -2738,13 +2741,13 @@
         <v>80799</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2762,13 @@
         <v>25623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2774,13 +2777,13 @@
         <v>13512</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -2789,13 +2792,13 @@
         <v>39135</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2813,13 @@
         <v>19054</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2825,13 +2828,13 @@
         <v>15611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2840,13 +2843,13 @@
         <v>34664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2864,13 @@
         <v>15320</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2876,13 +2879,13 @@
         <v>12756</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -2891,13 +2894,13 @@
         <v>28075</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2915,13 @@
         <v>29134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -2927,13 +2930,13 @@
         <v>25366</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -2942,13 +2945,13 @@
         <v>54500</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2966,13 @@
         <v>18877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -2978,13 +2981,13 @@
         <v>21241</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
@@ -2993,13 +2996,13 @@
         <v>40118</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,7 +3058,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3067,13 +3070,13 @@
         <v>66164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -3082,13 +3085,13 @@
         <v>78520</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -3097,13 +3100,13 @@
         <v>144683</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3121,13 @@
         <v>15167</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -3133,13 +3136,13 @@
         <v>19139</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -3148,13 +3151,13 @@
         <v>34306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3172,13 @@
         <v>13311</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
@@ -3184,13 +3187,13 @@
         <v>14310</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -3199,13 +3202,13 @@
         <v>27620</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3223,13 @@
         <v>28459</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -3235,13 +3238,13 @@
         <v>21453</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -3250,13 +3253,13 @@
         <v>49912</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3274,13 @@
         <v>28975</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -3286,13 +3289,13 @@
         <v>30765</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>52</v>
@@ -3301,13 +3304,13 @@
         <v>59740</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3325,13 @@
         <v>20325</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -3337,13 +3340,13 @@
         <v>30503</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -3352,13 +3355,13 @@
         <v>50827</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3417,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3426,13 +3429,13 @@
         <v>10635</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -3441,13 +3444,13 @@
         <v>8170</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -3456,13 +3459,13 @@
         <v>18805</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3480,13 @@
         <v>71087</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>160</v>
@@ -3492,13 +3495,13 @@
         <v>77873</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M33" s="7">
         <v>257</v>
@@ -3507,13 +3510,13 @@
         <v>148960</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3531,13 @@
         <v>29004</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -3543,13 +3546,13 @@
         <v>22253</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M34" s="7">
         <v>86</v>
@@ -3558,13 +3561,13 @@
         <v>51257</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3582,13 @@
         <v>10511</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -3594,13 +3597,13 @@
         <v>7799</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>28</v>
@@ -3609,13 +3612,13 @@
         <v>18310</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3633,13 @@
         <v>3218</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3645,13 +3648,13 @@
         <v>1247</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
@@ -3660,13 +3663,13 @@
         <v>4465</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3684,13 @@
         <v>573</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3696,13 +3699,13 @@
         <v>939</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -3711,13 +3714,13 @@
         <v>1512</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3776,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3785,13 +3788,13 @@
         <v>45908</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H39" s="7">
         <v>44</v>
@@ -3800,13 +3803,13 @@
         <v>34558</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M39" s="7">
         <v>91</v>
@@ -3815,13 +3818,13 @@
         <v>80466</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3839,13 @@
         <v>17126</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
@@ -3851,13 +3854,13 @@
         <v>14736</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M40" s="7">
         <v>41</v>
@@ -3866,13 +3869,13 @@
         <v>31861</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3890,13 @@
         <v>12369</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H41" s="7">
         <v>11</v>
@@ -3902,13 +3905,13 @@
         <v>7897</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="M41" s="7">
         <v>25</v>
@@ -3917,13 +3920,13 @@
         <v>20267</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3941,13 @@
         <v>27012</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H42" s="7">
         <v>17</v>
@@ -3953,13 +3956,13 @@
         <v>11941</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>307</v>
+        <v>144</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="M42" s="7">
         <v>49</v>
@@ -3968,13 +3971,13 @@
         <v>38953</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3992,13 @@
         <v>24425</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H43" s="7">
         <v>17</v>
@@ -4004,13 +4007,13 @@
         <v>11998</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M43" s="7">
         <v>45</v>
@@ -4019,13 +4022,13 @@
         <v>36423</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4043,13 @@
         <v>11828</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H44" s="7">
         <v>19</v>
@@ -4055,7 +4058,7 @@
         <v>11815</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>322</v>
+        <v>194</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>323</v>
@@ -4070,13 +4073,13 @@
         <v>23644</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4135,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4144,13 +4147,13 @@
         <v>102503</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H46" s="7">
         <v>118</v>
@@ -4159,13 +4162,13 @@
         <v>90544</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M46" s="7">
         <v>221</v>
@@ -4174,13 +4177,13 @@
         <v>193047</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,10 +4198,10 @@
         <v>97318</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>339</v>
@@ -4246,13 +4249,13 @@
         <v>27015</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H48" s="7">
         <v>36</v>
@@ -4261,13 +4264,13 @@
         <v>24285</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>233</v>
+        <v>350</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M48" s="7">
         <v>58</v>
@@ -4276,13 +4279,13 @@
         <v>51300</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>151</v>
+        <v>352</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4300,13 @@
         <v>54375</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H49" s="7">
         <v>68</v>
@@ -4312,13 +4315,13 @@
         <v>54273</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="M49" s="7">
         <v>117</v>
@@ -4327,13 +4330,13 @@
         <v>108648</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4351,13 @@
         <v>38086</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H50" s="7">
         <v>93</v>
@@ -4363,13 +4366,13 @@
         <v>67042</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M50" s="7">
         <v>129</v>
@@ -4378,13 +4381,13 @@
         <v>105127</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4402,13 @@
         <v>16553</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H51" s="7">
         <v>45</v>
@@ -4414,13 +4417,13 @@
         <v>30667</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M51" s="7">
         <v>63</v>
@@ -4429,13 +4432,13 @@
         <v>47220</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4494,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4503,13 +4506,13 @@
         <v>132818</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H53" s="7">
         <v>40</v>
@@ -4518,13 +4521,13 @@
         <v>35367</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>383</v>
+        <v>198</v>
       </c>
       <c r="M53" s="7">
         <v>107</v>
@@ -4533,13 +4536,13 @@
         <v>168185</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4557,10 @@
         <v>71706</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>389</v>
@@ -4587,10 +4590,10 @@
         <v>393</v>
       </c>
       <c r="P54" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4608,13 @@
         <v>86303</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H55" s="7">
         <v>71</v>
@@ -4620,13 +4623,13 @@
         <v>63520</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M55" s="7">
         <v>150</v>
@@ -4635,13 +4638,13 @@
         <v>149823</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4659,13 @@
         <v>119641</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H56" s="7">
         <v>91</v>
@@ -4671,13 +4674,13 @@
         <v>74278</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M56" s="7">
         <v>193</v>
@@ -4686,13 +4689,13 @@
         <v>193919</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>412</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4710,13 @@
         <v>70979</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H57" s="7">
         <v>80</v>
@@ -4722,13 +4725,13 @@
         <v>68013</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>417</v>
+        <v>170</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M57" s="7">
         <v>137</v>
@@ -4737,13 +4740,13 @@
         <v>138992</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>135</v>
+        <v>416</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>154</v>
+        <v>417</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4761,13 @@
         <v>24645</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H58" s="7">
         <v>27</v>
@@ -4773,13 +4776,13 @@
         <v>30844</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M58" s="7">
         <v>48</v>
@@ -4788,13 +4791,13 @@
         <v>55489</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4865,13 @@
         <v>607343</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H60" s="7">
         <v>543</v>
@@ -4877,13 +4880,13 @@
         <v>420735</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M60" s="7">
         <v>1071</v>
@@ -4892,13 +4895,13 @@
         <v>1028078</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="Q60" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4916,13 @@
         <v>341176</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H61" s="7">
         <v>423</v>
@@ -4928,13 +4931,13 @@
         <v>274469</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M61" s="7">
         <v>759</v>
@@ -4943,13 +4946,13 @@
         <v>615644</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>389</v>
+        <v>23</v>
       </c>
       <c r="P61" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4967,13 @@
         <v>208300</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>47</v>
+        <v>443</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H62" s="7">
         <v>243</v>
@@ -4979,13 +4982,13 @@
         <v>171741</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M62" s="7">
         <v>454</v>
@@ -4994,13 +4997,13 @@
         <v>380041</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>448</v>
+        <v>353</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5018,13 @@
         <v>321672</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H63" s="7">
         <v>319</v>
@@ -5030,13 +5033,13 @@
         <v>237070</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>35</v>
+        <v>455</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M63" s="7">
         <v>608</v>
@@ -5045,13 +5048,13 @@
         <v>558742</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>152</v>
+        <v>458</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5069,13 @@
         <v>251955</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H64" s="7">
         <v>314</v>
@@ -5081,13 +5084,13 @@
         <v>249187</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="M64" s="7">
         <v>526</v>
@@ -5096,13 +5099,13 @@
         <v>501143</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>463</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5120,13 @@
         <v>108068</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H65" s="7">
         <v>193</v>
@@ -5132,13 +5135,13 @@
         <v>149685</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>468</v>
+        <v>299</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>469</v>
+        <v>233</v>
       </c>
       <c r="M65" s="7">
         <v>293</v>
@@ -5147,13 +5150,13 @@
         <v>257753</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>314</v>
+        <v>470</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,7 +5212,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F725A5-1D89-41D4-AF7C-08E843A2B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8215603-C388-4ED9-9F7D-8AFFC70AE82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B232D46F-F585-4C72-BD9D-671836C0DB2A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C56C3CB5-3C59-4AAE-99FD-1196DD9ABAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="479">
   <si>
     <t>Población según si vuelven demasiado cansados a casa como para hacer las tareas domésticas necesarias en 2023 (Tasa respuesta: 42,45%)</t>
   </si>
@@ -71,1390 +71,1405 @@
     <t>Nunca/ casi nunca</t>
   </si>
   <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
   </si>
   <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1869,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F779EA-58E8-405C-B719-CFAD610E0C6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5784FB-A5AA-4846-A648-5395FC21C2A6}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1990,7 +2005,7 @@
         <v>135</v>
       </c>
       <c r="D4" s="7">
-        <v>108951</v>
+        <v>127844</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2005,7 +2020,7 @@
         <v>153</v>
       </c>
       <c r="I4" s="7">
-        <v>82447</v>
+        <v>88462</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2020,7 +2035,7 @@
         <v>288</v>
       </c>
       <c r="N4" s="7">
-        <v>191398</v>
+        <v>216306</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2041,7 +2056,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>16700</v>
+        <v>23101</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2056,7 +2071,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>11978</v>
+        <v>12707</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2071,7 +2086,7 @@
         <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>28678</v>
+        <v>35808</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2092,154 +2107,154 @@
         <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>14469</v>
+        <v>16730</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>12576</v>
+        <v>13398</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>27045</v>
+        <v>30128</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>18074</v>
+        <v>21026</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>25667</v>
+        <v>27269</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>43741</v>
+        <v>48294</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>4765</v>
+        <v>5501</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1745</v>
+        <v>2002</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>6510</v>
+        <v>7503</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2248,43 +2263,43 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,51 +2311,51 @@
         <v>202</v>
       </c>
       <c r="D10" s="7">
-        <v>162959</v>
+        <v>194201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>257</v>
       </c>
       <c r="I10" s="7">
-        <v>134890</v>
+        <v>144332</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>459</v>
       </c>
       <c r="N10" s="7">
-        <v>297849</v>
+        <v>338533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2349,46 +2364,46 @@
         <v>74</v>
       </c>
       <c r="D11" s="7">
-        <v>98181</v>
+        <v>95418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>52514</v>
+        <v>48918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>141</v>
       </c>
       <c r="N11" s="7">
-        <v>150695</v>
+        <v>144336</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,46 +2415,46 @@
         <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>26450</v>
+        <v>26498</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
       </c>
       <c r="I12" s="7">
-        <v>20997</v>
+        <v>19594</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
       </c>
       <c r="N12" s="7">
-        <v>47447</v>
+        <v>46091</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,10 +2466,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>6776</v>
+        <v>6995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>87</v>
@@ -2466,7 +2481,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>11289</v>
+        <v>10456</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>89</v>
@@ -2481,7 +2496,7 @@
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>18065</v>
+        <v>17451</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>92</v>
@@ -2490,124 +2505,124 @@
         <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>48281</v>
+        <v>49672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>28903</v>
+        <v>27073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
       </c>
       <c r="N14" s="7">
-        <v>77184</v>
+        <v>76745</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>33</v>
       </c>
       <c r="D15" s="7">
-        <v>52374</v>
+        <v>53076</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
       </c>
       <c r="I15" s="7">
-        <v>43012</v>
+        <v>40348</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M15" s="7">
         <v>84</v>
       </c>
       <c r="N15" s="7">
-        <v>95386</v>
+        <v>93424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>15268</v>
+        <v>15083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>113</v>
@@ -2619,7 +2634,7 @@
         <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>23199</v>
+        <v>21679</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>115</v>
@@ -2634,7 +2649,7 @@
         <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>38467</v>
+        <v>36762</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>118</v>
@@ -2655,46 +2670,46 @@
         <v>173</v>
       </c>
       <c r="D17" s="7">
-        <v>247330</v>
+        <v>246741</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
       </c>
       <c r="I17" s="7">
-        <v>179914</v>
+        <v>168068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
       </c>
       <c r="N17" s="7">
-        <v>427244</v>
+        <v>414810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2723,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="7">
-        <v>42184</v>
+        <v>41666</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>122</v>
@@ -2723,7 +2738,7 @@
         <v>46</v>
       </c>
       <c r="I18" s="7">
-        <v>38616</v>
+        <v>36319</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>125</v>
@@ -2738,7 +2753,7 @@
         <v>88</v>
       </c>
       <c r="N18" s="7">
-        <v>80799</v>
+        <v>77984</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>128</v>
@@ -2759,7 +2774,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>25623</v>
+        <v>25187</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>131</v>
@@ -2774,7 +2789,7 @@
         <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>13512</v>
+        <v>12808</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>134</v>
@@ -2789,7 +2804,7 @@
         <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>39135</v>
+        <v>37995</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>137</v>
@@ -2810,7 +2825,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>19054</v>
+        <v>18844</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>140</v>
@@ -2825,7 +2840,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="7">
-        <v>15611</v>
+        <v>14725</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>143</v>
@@ -2840,7 +2855,7 @@
         <v>39</v>
       </c>
       <c r="N20" s="7">
-        <v>34664</v>
+        <v>33569</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>146</v>
@@ -2855,154 +2870,154 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
         <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>15320</v>
+        <v>14979</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
       </c>
       <c r="I21" s="7">
-        <v>12756</v>
+        <v>12052</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
       </c>
       <c r="N21" s="7">
-        <v>28075</v>
+        <v>27031</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>29134</v>
+        <v>28521</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>25366</v>
+        <v>23826</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
       </c>
       <c r="N22" s="7">
-        <v>54500</v>
+        <v>52347</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>18877</v>
+        <v>18516</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
       </c>
       <c r="I23" s="7">
-        <v>21241</v>
+        <v>19938</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
       </c>
       <c r="N23" s="7">
-        <v>40118</v>
+        <v>38455</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,51 +3029,51 @@
         <v>151</v>
       </c>
       <c r="D24" s="7">
-        <v>150191</v>
+        <v>147713</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" s="7">
         <v>167</v>
       </c>
       <c r="I24" s="7">
-        <v>127102</v>
+        <v>119668</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>318</v>
       </c>
       <c r="N24" s="7">
-        <v>277292</v>
+        <v>267381</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3067,46 +3082,46 @@
         <v>45</v>
       </c>
       <c r="D25" s="7">
-        <v>66164</v>
+        <v>64350</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
       </c>
       <c r="I25" s="7">
-        <v>78520</v>
+        <v>151560</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
       </c>
       <c r="N25" s="7">
-        <v>144683</v>
+        <v>215909</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,46 +3133,46 @@
         <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>15167</v>
+        <v>14208</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
       </c>
       <c r="I26" s="7">
-        <v>19139</v>
+        <v>17805</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
       </c>
       <c r="N26" s="7">
-        <v>34306</v>
+        <v>32013</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,28 +3184,28 @@
         <v>12</v>
       </c>
       <c r="D27" s="7">
-        <v>13311</v>
+        <v>12794</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
       </c>
       <c r="I27" s="7">
-        <v>14310</v>
+        <v>12485</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>198</v>
@@ -3199,7 +3214,7 @@
         <v>28</v>
       </c>
       <c r="N27" s="7">
-        <v>27620</v>
+        <v>25279</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>199</v>
@@ -3214,13 +3229,13 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>18</v>
       </c>
       <c r="D28" s="7">
-        <v>28459</v>
+        <v>27062</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>202</v>
@@ -3235,7 +3250,7 @@
         <v>27</v>
       </c>
       <c r="I28" s="7">
-        <v>21453</v>
+        <v>19646</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>205</v>
@@ -3250,7 +3265,7 @@
         <v>45</v>
       </c>
       <c r="N28" s="7">
-        <v>49912</v>
+        <v>46709</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>208</v>
@@ -3265,13 +3280,13 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>18</v>
       </c>
       <c r="D29" s="7">
-        <v>28975</v>
+        <v>27587</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>211</v>
@@ -3286,7 +3301,7 @@
         <v>34</v>
       </c>
       <c r="I29" s="7">
-        <v>30765</v>
+        <v>28147</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>214</v>
@@ -3295,73 +3310,73 @@
         <v>215</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="M29" s="7">
         <v>52</v>
       </c>
       <c r="N29" s="7">
-        <v>59740</v>
+        <v>55734</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>14</v>
       </c>
       <c r="D30" s="7">
-        <v>20325</v>
+        <v>20358</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
       </c>
       <c r="I30" s="7">
-        <v>30503</v>
+        <v>28378</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
       </c>
       <c r="N30" s="7">
-        <v>50827</v>
+        <v>48735</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,51 +3388,51 @@
         <v>125</v>
       </c>
       <c r="D31" s="7">
-        <v>172401</v>
+        <v>166359</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H31" s="7">
         <v>202</v>
       </c>
       <c r="I31" s="7">
-        <v>194689</v>
+        <v>258021</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M31" s="7">
         <v>327</v>
       </c>
       <c r="N31" s="7">
-        <v>367089</v>
+        <v>424379</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3426,46 +3441,46 @@
         <v>15</v>
       </c>
       <c r="D32" s="7">
-        <v>10635</v>
+        <v>9650</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
       </c>
       <c r="I32" s="7">
-        <v>8170</v>
+        <v>7287</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
       </c>
       <c r="N32" s="7">
-        <v>18805</v>
+        <v>16938</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,46 +3492,46 @@
         <v>97</v>
       </c>
       <c r="D33" s="7">
-        <v>71087</v>
+        <v>65027</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H33" s="7">
         <v>160</v>
       </c>
       <c r="I33" s="7">
-        <v>77873</v>
+        <v>70830</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M33" s="7">
         <v>257</v>
       </c>
       <c r="N33" s="7">
-        <v>148960</v>
+        <v>135857</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,199 +3543,199 @@
         <v>39</v>
       </c>
       <c r="D34" s="7">
-        <v>29004</v>
+        <v>26623</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
       </c>
       <c r="I34" s="7">
-        <v>22253</v>
+        <v>20262</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M34" s="7">
         <v>86</v>
       </c>
       <c r="N34" s="7">
-        <v>51257</v>
+        <v>46884</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7">
         <v>15</v>
       </c>
       <c r="D35" s="7">
-        <v>10511</v>
+        <v>9541</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
       </c>
       <c r="I35" s="7">
-        <v>7799</v>
+        <v>6733</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="M35" s="7">
         <v>28</v>
       </c>
       <c r="N35" s="7">
-        <v>18310</v>
+        <v>16274</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
         <v>4</v>
       </c>
       <c r="D36" s="7">
-        <v>3218</v>
+        <v>2877</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
       </c>
       <c r="I36" s="7">
-        <v>1247</v>
+        <v>1163</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M36" s="7">
         <v>8</v>
       </c>
       <c r="N36" s="7">
-        <v>4465</v>
+        <v>4041</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>939</v>
+        <v>841</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>1512</v>
+        <v>1362</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,51 +3747,51 @@
         <v>171</v>
       </c>
       <c r="D38" s="7">
-        <v>125027</v>
+        <v>114239</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H38" s="7">
         <v>240</v>
       </c>
       <c r="I38" s="7">
-        <v>118281</v>
+        <v>107117</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M38" s="7">
         <v>411</v>
       </c>
       <c r="N38" s="7">
-        <v>243308</v>
+        <v>221356</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3785,43 +3800,43 @@
         <v>47</v>
       </c>
       <c r="D39" s="7">
-        <v>45908</v>
+        <v>45024</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H39" s="7">
         <v>44</v>
       </c>
       <c r="I39" s="7">
-        <v>34558</v>
+        <v>32165</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" s="7">
         <v>91</v>
       </c>
       <c r="N39" s="7">
-        <v>80466</v>
+        <v>77188</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>287</v>
@@ -3836,28 +3851,28 @@
         <v>20</v>
       </c>
       <c r="D40" s="7">
-        <v>17126</v>
+        <v>16460</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>288</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
       </c>
       <c r="I40" s="7">
-        <v>14736</v>
+        <v>13728</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>292</v>
@@ -3866,7 +3881,7 @@
         <v>41</v>
       </c>
       <c r="N40" s="7">
-        <v>31861</v>
+        <v>30188</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>293</v>
@@ -3887,7 +3902,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="7">
-        <v>12369</v>
+        <v>12048</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>296</v>
@@ -3902,7 +3917,7 @@
         <v>11</v>
       </c>
       <c r="I41" s="7">
-        <v>7897</v>
+        <v>7317</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>299</v>
@@ -3917,148 +3932,148 @@
         <v>25</v>
       </c>
       <c r="N41" s="7">
-        <v>20267</v>
+        <v>19365</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>302</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>32</v>
       </c>
       <c r="D42" s="7">
-        <v>27012</v>
+        <v>26149</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H42" s="7">
         <v>17</v>
       </c>
       <c r="I42" s="7">
-        <v>11941</v>
+        <v>11023</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M42" s="7">
         <v>49</v>
       </c>
       <c r="N42" s="7">
-        <v>38953</v>
+        <v>37172</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="7">
         <v>28</v>
       </c>
       <c r="D43" s="7">
-        <v>24425</v>
+        <v>23705</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H43" s="7">
         <v>17</v>
       </c>
       <c r="I43" s="7">
-        <v>11998</v>
+        <v>11079</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M43" s="7">
         <v>45</v>
       </c>
       <c r="N43" s="7">
-        <v>36423</v>
+        <v>34784</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7">
         <v>14</v>
       </c>
       <c r="D44" s="7">
-        <v>11828</v>
+        <v>11675</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H44" s="7">
         <v>19</v>
       </c>
       <c r="I44" s="7">
-        <v>11815</v>
+        <v>11090</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>194</v>
+        <v>322</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>323</v>
@@ -4070,16 +4085,16 @@
         <v>33</v>
       </c>
       <c r="N44" s="7">
-        <v>23644</v>
+        <v>22765</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,51 +4106,51 @@
         <v>155</v>
       </c>
       <c r="D45" s="7">
-        <v>138669</v>
+        <v>135061</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H45" s="7">
         <v>129</v>
       </c>
       <c r="I45" s="7">
-        <v>92945</v>
+        <v>86402</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M45" s="7">
         <v>284</v>
       </c>
       <c r="N45" s="7">
-        <v>231614</v>
+        <v>221463</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4144,46 +4159,46 @@
         <v>103</v>
       </c>
       <c r="D46" s="7">
-        <v>102503</v>
+        <v>100685</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H46" s="7">
         <v>118</v>
       </c>
       <c r="I46" s="7">
-        <v>90544</v>
+        <v>84605</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M46" s="7">
         <v>221</v>
       </c>
       <c r="N46" s="7">
-        <v>193047</v>
+        <v>185289</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,46 +4210,46 @@
         <v>86</v>
       </c>
       <c r="D47" s="7">
-        <v>97318</v>
+        <v>99728</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H47" s="7">
         <v>89</v>
       </c>
       <c r="I47" s="7">
-        <v>60198</v>
+        <v>56643</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M47" s="7">
         <v>175</v>
       </c>
       <c r="N47" s="7">
-        <v>157516</v>
+        <v>156371</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,94 +4261,94 @@
         <v>22</v>
       </c>
       <c r="D48" s="7">
-        <v>27015</v>
+        <v>26589</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H48" s="7">
         <v>36</v>
       </c>
       <c r="I48" s="7">
-        <v>24285</v>
+        <v>22827</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M48" s="7">
         <v>58</v>
       </c>
       <c r="N48" s="7">
-        <v>51300</v>
+        <v>49416</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
         <v>49</v>
       </c>
       <c r="D49" s="7">
-        <v>54375</v>
+        <v>53997</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H49" s="7">
         <v>68</v>
       </c>
       <c r="I49" s="7">
-        <v>54273</v>
+        <v>50869</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>357</v>
+        <v>211</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>358</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="M49" s="7">
         <v>117</v>
       </c>
       <c r="N49" s="7">
-        <v>108648</v>
+        <v>104866</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>360</v>
+        <v>156</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>361</v>
@@ -4342,13 +4357,13 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>36</v>
       </c>
       <c r="D50" s="7">
-        <v>38086</v>
+        <v>37169</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>362</v>
@@ -4363,7 +4378,7 @@
         <v>93</v>
       </c>
       <c r="I50" s="7">
-        <v>67042</v>
+        <v>63009</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>365</v>
@@ -4378,7 +4393,7 @@
         <v>129</v>
       </c>
       <c r="N50" s="7">
-        <v>105127</v>
+        <v>100178</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>368</v>
@@ -4393,13 +4408,13 @@
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="7">
         <v>18</v>
       </c>
       <c r="D51" s="7">
-        <v>16553</v>
+        <v>16134</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>371</v>
@@ -4408,37 +4423,37 @@
         <v>372</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="H51" s="7">
         <v>45</v>
       </c>
       <c r="I51" s="7">
-        <v>30667</v>
+        <v>28771</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="L51" s="7" t="s">
-        <v>376</v>
+        <v>39</v>
       </c>
       <c r="M51" s="7">
         <v>63</v>
       </c>
       <c r="N51" s="7">
-        <v>47220</v>
+        <v>44905</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,51 +4465,51 @@
         <v>314</v>
       </c>
       <c r="D52" s="7">
-        <v>335849</v>
+        <v>334301</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H52" s="7">
         <v>449</v>
       </c>
       <c r="I52" s="7">
-        <v>327008</v>
+        <v>306725</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M52" s="7">
         <v>763</v>
       </c>
       <c r="N52" s="7">
-        <v>662857</v>
+        <v>641026</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4503,46 +4518,46 @@
         <v>67</v>
       </c>
       <c r="D53" s="7">
-        <v>132818</v>
+        <v>313031</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H53" s="7">
         <v>40</v>
       </c>
       <c r="I53" s="7">
-        <v>35367</v>
+        <v>29241</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M53" s="7">
         <v>107</v>
       </c>
       <c r="N53" s="7">
-        <v>168185</v>
+        <v>342272</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,46 +4569,46 @@
         <v>59</v>
       </c>
       <c r="D54" s="7">
-        <v>71706</v>
+        <v>60009</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>209</v>
+        <v>389</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H54" s="7">
         <v>67</v>
       </c>
       <c r="I54" s="7">
-        <v>56035</v>
+        <v>46453</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M54" s="7">
         <v>126</v>
       </c>
       <c r="N54" s="7">
-        <v>127741</v>
+        <v>106462</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>233</v>
+        <v>395</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,73 +4620,73 @@
         <v>79</v>
       </c>
       <c r="D55" s="7">
-        <v>86303</v>
+        <v>73487</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H55" s="7">
         <v>71</v>
       </c>
       <c r="I55" s="7">
-        <v>63520</v>
+        <v>52479</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M55" s="7">
         <v>150</v>
       </c>
       <c r="N55" s="7">
-        <v>149823</v>
+        <v>125966</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>402</v>
+        <v>149</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" s="7">
         <v>102</v>
       </c>
       <c r="D56" s="7">
-        <v>119641</v>
+        <v>100554</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>406</v>
+        <v>112</v>
       </c>
       <c r="H56" s="7">
         <v>91</v>
       </c>
       <c r="I56" s="7">
-        <v>74278</v>
+        <v>62404</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>407</v>
@@ -4686,118 +4701,118 @@
         <v>193</v>
       </c>
       <c r="N56" s="7">
-        <v>193919</v>
+        <v>162959</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>410</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>145</v>
+        <v>411</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>96</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" s="7">
         <v>57</v>
       </c>
       <c r="D57" s="7">
-        <v>70979</v>
+        <v>60381</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="H57" s="7">
         <v>80</v>
       </c>
       <c r="I57" s="7">
-        <v>68013</v>
+        <v>56820</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>170</v>
+        <v>416</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M57" s="7">
         <v>137</v>
       </c>
       <c r="N57" s="7">
-        <v>138992</v>
+        <v>117201</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="7">
         <v>21</v>
       </c>
       <c r="D58" s="7">
-        <v>24645</v>
+        <v>20863</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>200</v>
+        <v>421</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>420</v>
+        <v>227</v>
       </c>
       <c r="H58" s="7">
         <v>27</v>
       </c>
       <c r="I58" s="7">
-        <v>30844</v>
+        <v>24613</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M58" s="7">
         <v>48</v>
       </c>
       <c r="N58" s="7">
-        <v>55489</v>
+        <v>45476</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,46 +4824,46 @@
         <v>385</v>
       </c>
       <c r="D59" s="7">
-        <v>506091</v>
+        <v>628325</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H59" s="7">
         <v>376</v>
       </c>
       <c r="I59" s="7">
-        <v>328058</v>
+        <v>272011</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M59" s="7">
         <v>761</v>
       </c>
       <c r="N59" s="7">
-        <v>834149</v>
+        <v>900336</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,46 +4877,46 @@
         <v>528</v>
       </c>
       <c r="D60" s="7">
-        <v>607343</v>
+        <v>797666</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H60" s="7">
         <v>543</v>
       </c>
       <c r="I60" s="7">
-        <v>420735</v>
+        <v>478557</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>307</v>
+        <v>433</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M60" s="7">
         <v>1071</v>
       </c>
       <c r="N60" s="7">
-        <v>1028078</v>
+        <v>1276223</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,46 +4928,46 @@
         <v>336</v>
       </c>
       <c r="D61" s="7">
-        <v>341176</v>
+        <v>330218</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H61" s="7">
         <v>423</v>
       </c>
       <c r="I61" s="7">
-        <v>274469</v>
+        <v>250568</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M61" s="7">
         <v>759</v>
       </c>
       <c r="N61" s="7">
-        <v>615644</v>
+        <v>580786</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>23</v>
+        <v>444</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,199 +4979,199 @@
         <v>211</v>
       </c>
       <c r="D62" s="7">
-        <v>208300</v>
+        <v>194108</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H62" s="7">
         <v>243</v>
       </c>
       <c r="I62" s="7">
-        <v>171741</v>
+        <v>153950</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M62" s="7">
         <v>454</v>
       </c>
       <c r="N62" s="7">
-        <v>380041</v>
+        <v>348058</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>353</v>
+        <v>454</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>450</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" s="7">
         <v>289</v>
       </c>
       <c r="D63" s="7">
-        <v>321672</v>
+        <v>302981</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H63" s="7">
         <v>319</v>
       </c>
       <c r="I63" s="7">
-        <v>237070</v>
+        <v>217070</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>454</v>
+        <v>301</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>455</v>
+        <v>303</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M63" s="7">
         <v>608</v>
       </c>
       <c r="N63" s="7">
-        <v>558742</v>
+        <v>520050</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>139</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" s="7">
         <v>212</v>
       </c>
       <c r="D64" s="7">
-        <v>251955</v>
+        <v>238817</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H64" s="7">
         <v>314</v>
       </c>
       <c r="I64" s="7">
-        <v>249187</v>
+        <v>226395</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>340</v>
+        <v>466</v>
       </c>
       <c r="M64" s="7">
         <v>526</v>
       </c>
       <c r="N64" s="7">
-        <v>501143</v>
+        <v>465212</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>359</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C65" s="7">
         <v>100</v>
       </c>
       <c r="D65" s="7">
-        <v>108068</v>
+        <v>103150</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>466</v>
+        <v>348</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H65" s="7">
         <v>193</v>
       </c>
       <c r="I65" s="7">
-        <v>149685</v>
+        <v>135805</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>299</v>
+        <v>473</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>233</v>
+        <v>474</v>
       </c>
       <c r="M65" s="7">
         <v>293</v>
       </c>
       <c r="N65" s="7">
-        <v>257753</v>
+        <v>238954</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,51 +5183,51 @@
         <v>1676</v>
       </c>
       <c r="D66" s="7">
-        <v>1838515</v>
+        <v>1966940</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H66" s="7">
         <v>2035</v>
       </c>
       <c r="I66" s="7">
-        <v>1502886</v>
+        <v>1462345</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M66" s="7">
         <v>3711</v>
       </c>
       <c r="N66" s="7">
-        <v>3341402</v>
+        <v>3429285</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
